--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Downloads/7-12-23_IEX/7-12-23_IEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Desktop/11-1-23_IEX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{8B255181-7898-4799-9A38-47AF8CA5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC2D076-8320-48D2-8403-03B5D9C019AC}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{8B255181-7898-4799-9A38-47AF8CA5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF3C4A6-581F-413B-9DC2-94680B91E8A7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="ions" sheetId="2" r:id="rId2"/>
     <sheet name="Cin" sheetId="3" r:id="rId3"/>
-    <sheet name="results per mgl" sheetId="4" r:id="rId4"/>
+    <sheet name="effluent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -6,12 +6,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Desktop/11-1-23_IEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{8B255181-7898-4799-9A38-47AF8CA5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF3C4A6-581F-413B-9DC2-94680B91E8A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>hours</t>
-  </si>
-  <si>
-    <t>conc</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -506,9 +500,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -530,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -541,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -552,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -563,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -574,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -596,7 +590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -604,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -615,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -639,12 +633,12 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -702,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -731,7 +725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -760,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -789,7 +783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -831,9 +825,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -853,7 +847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -873,7 +867,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -901,34 +895,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C450A-A43E-4263-8602-848D1B4D2897}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B8402F-5A51-433C-9096-025F51577C6E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="8325" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>Dp</t>
+  </si>
+  <si>
+    <t>Dp_units</t>
   </si>
 </sst>
 </file>
@@ -500,9 +506,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -524,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -546,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -557,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -568,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -579,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -590,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -598,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -609,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -627,18 +633,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +670,16 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -692,11 +704,17 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -721,11 +739,17 @@
       <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -750,11 +774,17 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -779,11 +809,17 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -808,7 +844,13 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -825,9 +867,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -847,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -867,7 +909,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -897,13 +939,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C450A-A43E-4263-8602-848D1B4D2897}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -911,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -6,12 +6,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Desktop/12-5-23_IEX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{8B255181-7898-4799-9A38-47AF8CA5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37C351C-EC3C-4EB4-917C-3E61E4F55CC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18060" yWindow="1860" windowWidth="14400" windowHeight="10545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -133,7 +133,16 @@
     <t>cm^2/s</t>
   </si>
   <si>
-    <t>hours</t>
+    <t>Dp</t>
+  </si>
+  <si>
+    <t>Dp_units</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>HSDM</t>
   </si>
 </sst>
 </file>
@@ -494,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -524,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -535,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -546,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -557,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -568,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -579,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -590,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -598,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -609,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -618,6 +627,14 @@
       </c>
       <c r="C11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -627,18 +644,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,19 +672,25 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -683,20 +706,26 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -712,20 +741,26 @@
       <c r="E3" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1.9999999999999999E-7</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -741,20 +776,26 @@
       <c r="E4" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1.9999999999999999E-7</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -770,20 +811,26 @@
       <c r="E5" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1.9999999999999999E-7</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -799,16 +846,22 @@
       <c r="E6" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1.9999999999999999E-7</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -825,9 +878,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -847,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -867,7 +920,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -897,21 +950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C450A-A43E-4263-8602-848D1B4D2897}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B8402F-5A51-433C-9096-025F51577C6E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC68CCB0-6DC1-428A-A2CE-3A542A119715}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8325" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Dp_units</t>
+  </si>
+  <si>
+    <t>ng</t>
   </si>
 </sst>
 </file>
@@ -506,9 +509,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -541,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -563,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -574,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -596,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -604,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -615,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -635,16 +638,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -714,7 +717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -733,8 +736,8 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>1.9999999999999999E-7</v>
+      <c r="G3" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -749,7 +752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -768,8 +771,8 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>1.9999999999999999E-7</v>
+      <c r="G4" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -784,7 +787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -803,8 +806,8 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>1.9999999999999999E-7</v>
+      <c r="G5" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -819,7 +822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -838,8 +841,8 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>1.9999999999999999E-7</v>
+      <c r="G6" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -851,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -863,13 +866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -889,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -906,10 +909,10 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="F2" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -926,7 +929,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +946,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -953,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -6,12 +6,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Desktop/12-5-23_IEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{8B255181-7898-4799-9A38-47AF8CA5F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37C351C-EC3C-4EB4-917C-3E61E4F55CC7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC68CCB0-6DC1-428A-A2CE-3A542A119715}"/>
   <bookViews>
-    <workbookView xWindow="-18060" yWindow="1860" windowWidth="14400" windowHeight="10545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -133,16 +133,16 @@
     <t>cm^2/s</t>
   </si>
   <si>
+    <t>hours</t>
+  </si>
+  <si>
     <t>Dp</t>
   </si>
   <si>
     <t>Dp_units</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>HSDM</t>
+    <t>ng</t>
   </si>
 </sst>
 </file>
@@ -503,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -588,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -627,14 +627,6 @@
       </c>
       <c r="C11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -647,15 +639,15 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,25 +664,25 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -706,11 +698,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -725,7 +717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -741,17 +733,17 @@
       <c r="E3" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F3">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3">
-        <v>1.9999999999999999E-7</v>
+      <c r="I3" s="1">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -760,7 +752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -776,17 +768,17 @@
       <c r="E4" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F4">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4">
-        <v>1.9999999999999999E-7</v>
+      <c r="I4" s="1">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -795,7 +787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -811,17 +803,17 @@
       <c r="E5" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F5">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5">
-        <v>1.9999999999999999E-7</v>
+      <c r="I5" s="1">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -830,7 +822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -846,23 +838,23 @@
       <c r="E6" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F6">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2E-8</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="1">
-        <v>2.0000000000000001E-9</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -874,13 +866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -900,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -917,10 +909,10 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="F2" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -937,7 +929,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -950,19 +942,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C450A-A43E-4263-8602-848D1B4D2897}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>

--- a/ShinyApp/config.xlsx
+++ b/ShinyApp/config.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/ShinyApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCOLANTO\OneDrive - Environmental Protection Agency (EPA)\Profile\Desktop\IEX_2-20-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{90553765-B27D-4C23-95A1-91125137074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC68CCB0-6DC1-428A-A2CE-3A542A119715}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A774DBF-292C-4191-B0AC-FF53BCE933BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="ions" sheetId="2" r:id="rId2"/>
     <sheet name="Cin" sheetId="3" r:id="rId3"/>
     <sheet name="effluent" sheetId="4" r:id="rId4"/>
+    <sheet name="name" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +144,9 @@
   </si>
   <si>
     <t>ng</t>
+  </si>
+  <si>
+    <t>No File Uploaded</t>
   </si>
 </sst>
 </file>
@@ -509,9 +513,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -533,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -544,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -555,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -566,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -577,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -588,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -599,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -607,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -618,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -642,12 +646,12 @@
       <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -717,7 +721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -752,7 +756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -787,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -822,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -866,13 +870,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -892,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -912,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40.5</v>
       </c>
@@ -946,9 +950,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -956,12 +960,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC5EA50-FE9E-4A25-997F-AD599316F020}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
